--- a/VT_Model_SUP_V01.xlsx
+++ b/VT_Model_SUP_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\MSc_SELECT_BLANCK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxco\Desktop\Masters\UPC\SEM 2\Energy Policy\GAMS\Class 4\Model_MSc_SELECT\Model_MSc_SELECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C067757-9E94-4C61-90DF-8EC8567C0593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE09AD5-4591-4CF2-91E8-127DE2EB0E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -783,8 +783,30 @@
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="102">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1027,6 +1049,69 @@
   </si>
   <si>
     <t>All processes BUT gas at the DAYNITE</t>
+  </si>
+  <si>
+    <t>MIN_SOLAR</t>
+  </si>
+  <si>
+    <t>Solar irradiance process</t>
+  </si>
+  <si>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t>SOLAR</t>
+  </si>
+  <si>
+    <t>DAYNITE</t>
+  </si>
+  <si>
+    <t>WIND_ON</t>
+  </si>
+  <si>
+    <t>WIND_OFF</t>
+  </si>
+  <si>
+    <t>NAT_GAS</t>
+  </si>
+  <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>Wind onshore</t>
+  </si>
+  <si>
+    <t>Wind offshore</t>
+  </si>
+  <si>
+    <t>Nat gas</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>MIN_WIND_ON</t>
+  </si>
+  <si>
+    <t>MIN_WIND_OFF</t>
+  </si>
+  <si>
+    <t>IMP_NAT_GAS</t>
+  </si>
+  <si>
+    <t>IMP_ELC</t>
+  </si>
+  <si>
+    <t>PJa</t>
+  </si>
+  <si>
+    <t>COST</t>
+  </si>
+  <si>
+    <t>CUM</t>
+  </si>
+  <si>
+    <t>We put 0.0001 as a "very small" value that is not 0</t>
   </si>
 </sst>
 </file>
@@ -2086,7 +2171,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2152,20 +2237,17 @@
     <xf numFmtId="1" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="338">
@@ -3006,25 +3088,25 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:I29"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:G20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.73046875" customWidth="1"/>
+    <col min="2" max="3" width="14.265625" customWidth="1"/>
+    <col min="4" max="4" width="32.73046875" customWidth="1"/>
+    <col min="5" max="5" width="10.73046875" customWidth="1"/>
+    <col min="6" max="6" width="15.73046875" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.73046875" customWidth="1"/>
+    <col min="9" max="9" width="15.73046875" customWidth="1"/>
+    <col min="10" max="10" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="18">
+    <row r="2" spans="2:9" ht="17.25">
       <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
@@ -3056,7 +3138,7 @@
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" ht="13.15">
       <c r="B5" s="29" t="s">
         <v>2</v>
       </c>
@@ -3109,51 +3191,103 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="B7" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>83</v>
+      </c>
       <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
+      <c r="G7" s="27" t="s">
+        <v>85</v>
+      </c>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
     </row>
     <row r="8" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="B8" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>83</v>
+      </c>
       <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
+      <c r="G8" s="27" t="s">
+        <v>85</v>
+      </c>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
     </row>
     <row r="9" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
+      <c r="B9" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>83</v>
+      </c>
       <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="G9" s="27" t="s">
+        <v>85</v>
+      </c>
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
     </row>
     <row r="10" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
+      <c r="B10" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>83</v>
+      </c>
       <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="G10" s="27"/>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
+      <c r="B11" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>83</v>
+      </c>
       <c r="F11" s="19"/>
+      <c r="G11" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="24"/>
@@ -3207,7 +3341,7 @@
       <c r="C22" s="24"/>
       <c r="E22" s="24"/>
     </row>
-    <row r="24" spans="2:5" ht="13.5" thickBot="1">
+    <row r="24" spans="2:5" ht="13.15" thickBot="1">
       <c r="B24" s="39" t="s">
         <v>18</v>
       </c>
@@ -3245,7 +3379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="13.5" thickBot="1">
+    <row r="29" spans="2:5" ht="13.15" thickBot="1">
       <c r="B29" s="23" t="s">
         <v>26</v>
       </c>
@@ -3269,22 +3403,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.73046875" customWidth="1"/>
+    <col min="2" max="2" width="15.73046875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.59765625" customWidth="1"/>
     <col min="6" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.3984375" customWidth="1"/>
+    <col min="9" max="9" width="14.265625" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="18" customHeight="1">
@@ -3368,57 +3502,105 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B7" s="32"/>
+      <c r="B7" s="32" t="s">
+        <v>47</v>
+      </c>
       <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
+      <c r="D7" s="32" t="s">
+        <v>81</v>
+      </c>
       <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
+      <c r="F7" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>85</v>
+      </c>
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B8" s="32"/>
+      <c r="B8" s="32" t="s">
+        <v>47</v>
+      </c>
       <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
+      <c r="D8" s="32" t="s">
+        <v>94</v>
+      </c>
       <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
+      <c r="F8" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>85</v>
+      </c>
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="B9" s="32"/>
+      <c r="B9" s="32" t="s">
+        <v>47</v>
+      </c>
       <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="D9" s="32" t="s">
+        <v>95</v>
+      </c>
       <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
+      <c r="F9" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>85</v>
+      </c>
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1">
-      <c r="B10" s="33"/>
+      <c r="B10" s="33" t="s">
+        <v>48</v>
+      </c>
       <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
+      <c r="D10" s="32" t="s">
+        <v>96</v>
+      </c>
       <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
+      <c r="F10" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="H10" s="32"/>
       <c r="I10" s="33"/>
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="B11" s="33"/>
+      <c r="B11" s="33" t="s">
+        <v>48</v>
+      </c>
       <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
+      <c r="D11" s="32" t="s">
+        <v>97</v>
+      </c>
       <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
+      <c r="F11" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="24"/>
@@ -3557,7 +3739,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="13.5" thickBot="1">
+    <row r="31" spans="2:6" ht="13.15" thickBot="1">
       <c r="B31" s="23" t="s">
         <v>66</v>
       </c>
@@ -3582,18 +3764,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="10" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.73046875" customWidth="1"/>
+    <col min="2" max="2" width="22.73046875" customWidth="1"/>
+    <col min="3" max="3" width="27.265625" customWidth="1"/>
+    <col min="4" max="5" width="12.73046875" customWidth="1"/>
+    <col min="6" max="7" width="14.265625" customWidth="1"/>
+    <col min="8" max="10" width="15.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -3617,7 +3799,7 @@
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
     </row>
-    <row r="2" spans="1:20" ht="18">
+    <row r="2" spans="1:20" ht="17.25">
       <c r="A2" s="5"/>
       <c r="B2" s="10" t="s">
         <v>68</v>
@@ -3696,8 +3878,12 @@
       <c r="D5" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
+      <c r="E5" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>100</v>
+      </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
@@ -3745,39 +3931,61 @@
       <c r="T6" s="5"/>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B7" s="34"/>
+      <c r="B7" s="34" t="str">
+        <f>SEC_Processes!D7</f>
+        <v>MIN_SOLAR</v>
+      </c>
       <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
+      <c r="D7" s="34" t="str" cm="1">
+        <f t="array" ref="D7:D11">SEC_Comm!C7:C11</f>
+        <v>SOLAR</v>
+      </c>
+      <c r="E7" s="35">
+        <v>1.0000000000000001E-5</v>
+      </c>
       <c r="F7" s="34"/>
       <c r="H7" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="38">
+      <c r="I7" s="37">
         <v>10</v>
       </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B8" s="34"/>
+      <c r="B8" s="34" t="str">
+        <f>SEC_Processes!D8</f>
+        <v>MIN_WIND_ON</v>
+      </c>
       <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35"/>
+      <c r="D8" s="34" t="str">
+        <v>WIND_ON</v>
+      </c>
+      <c r="E8" s="35">
+        <v>1.0000000000000001E-5</v>
+      </c>
       <c r="F8" s="34"/>
       <c r="H8" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="37">
         <v>50</v>
       </c>
-      <c r="K8" s="38"/>
+      <c r="K8" s="37"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="B9" s="36"/>
+      <c r="B9" s="34" t="str">
+        <f>SEC_Processes!D9</f>
+        <v>MIN_WIND_OFF</v>
+      </c>
       <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37"/>
+      <c r="D9" s="36" t="str">
+        <v>WIND_OFF</v>
+      </c>
+      <c r="E9" s="35">
+        <v>1.0000000000000001E-5</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="36"/>
       <c r="H9" s="24" t="s">
@@ -3787,19 +3995,36 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
-      <c r="B10" s="36"/>
+    <row r="10" spans="1:20" ht="13.5">
+      <c r="B10" s="34" t="str">
+        <f>SEC_Processes!D10</f>
+        <v>IMP_NAT_GAS</v>
+      </c>
       <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
+      <c r="D10" s="36" t="str">
+        <v>NAT_GAS</v>
+      </c>
+      <c r="E10" s="37">
+        <v>10</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="36"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="B11" s="36"/>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="13.5">
+      <c r="B11" s="34" t="str">
+        <f>SEC_Processes!D11</f>
+        <v>IMP_ELC</v>
+      </c>
       <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
+      <c r="D11" s="36" t="str">
+        <v>ELC</v>
+      </c>
+      <c r="E11" s="37">
+        <v>50</v>
+      </c>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:20">
@@ -3826,21 +4051,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="56d16bfd38a93d3246b87ec2f908dfef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e7776de10091f04de0bec4c5ba2ee03" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -3984,24 +4194,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ADE2FD8-87C7-41E1-A1A0-6DF35B741F42}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4017,4 +4225,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VT_Model_SUP_V01.xlsx
+++ b/VT_Model_SUP_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxco\Desktop\Masters\UPC\SEM 2\Energy Policy\GAMS\Class 4\Model_MSc_SELECT\Model_MSc_SELECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\MSc_SELECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE09AD5-4591-4CF2-91E8-127DE2EB0E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E435FA-B065-4DF4-82E0-1F20FD583BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -783,30 +783,8 @@
 </comments>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="106">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -859,9 +837,51 @@
     <t>Electricity Indicator (for CHPs)</t>
   </si>
   <si>
+    <t>\I: Predefiniowany zbiór dóbr</t>
+  </si>
+  <si>
+    <t>Nazwa dobra</t>
+  </si>
+  <si>
+    <t>Opis sobra</t>
+  </si>
+  <si>
+    <t>Jednostka dobra</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Poziom podokresów roku - równanie bilansu</t>
+  </si>
+  <si>
+    <t>Oznaczenie dobra "energia elektryczna" dla CHP</t>
+  </si>
+  <si>
     <t>NRG</t>
   </si>
   <si>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t>NAT_GAS</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>SOLAR</t>
+  </si>
+  <si>
+    <t>Solar Energy</t>
+  </si>
+  <si>
+    <t>WIND_ON</t>
+  </si>
+  <si>
+    <t>Onshore Wind Energy</t>
+  </si>
+  <si>
     <t>Available Commodity Sets</t>
   </si>
   <si>
@@ -955,6 +975,27 @@
     <t>IMP</t>
   </si>
   <si>
+    <t>IMP_NAT_GAS</t>
+  </si>
+  <si>
+    <t>Natural Gas Imports</t>
+  </si>
+  <si>
+    <t>MIN_SOLAR</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>DAYNITE</t>
+  </si>
+  <si>
+    <t>MIN_WIND_ON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wind Onshore </t>
+  </si>
+  <si>
     <t>Available Process Sets</t>
   </si>
   <si>
@@ -1018,12 +1059,12 @@
     <t>~FI_T</t>
   </si>
   <si>
-    <t>* TechDesc</t>
-  </si>
-  <si>
     <t>Comm-OUT</t>
   </si>
   <si>
+    <t>COST</t>
+  </si>
+  <si>
     <t>\I: Technology Name</t>
   </si>
   <si>
@@ -1033,85 +1074,34 @@
     <t>Extraction Cost [EUR/GJ]</t>
   </si>
   <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>IMP_ELC</t>
+  </si>
+  <si>
+    <t>Electricicty import</t>
+  </si>
+  <si>
+    <t>WIND_OFF</t>
+  </si>
+  <si>
+    <t>MIN_WIND_OFF</t>
+  </si>
+  <si>
+    <t>Offshore Wind Energy</t>
+  </si>
+  <si>
+    <t>CUM</t>
+  </si>
+  <si>
     <t>Cumulative bound</t>
-  </si>
-  <si>
-    <t>Natural gas price</t>
-  </si>
-  <si>
-    <t>Electricity from import</t>
-  </si>
-  <si>
-    <t>RES</t>
-  </si>
-  <si>
-    <t>very small</t>
-  </si>
-  <si>
-    <t>All processes BUT gas at the DAYNITE</t>
-  </si>
-  <si>
-    <t>MIN_SOLAR</t>
-  </si>
-  <si>
-    <t>Solar irradiance process</t>
-  </si>
-  <si>
-    <t>PJ</t>
-  </si>
-  <si>
-    <t>SOLAR</t>
-  </si>
-  <si>
-    <t>DAYNITE</t>
-  </si>
-  <si>
-    <t>WIND_ON</t>
-  </si>
-  <si>
-    <t>WIND_OFF</t>
-  </si>
-  <si>
-    <t>NAT_GAS</t>
-  </si>
-  <si>
-    <t>ELC</t>
-  </si>
-  <si>
-    <t>Wind onshore</t>
-  </si>
-  <si>
-    <t>Wind offshore</t>
-  </si>
-  <si>
-    <t>Nat gas</t>
-  </si>
-  <si>
-    <t>Electricity</t>
-  </si>
-  <si>
-    <t>MIN_WIND_ON</t>
-  </si>
-  <si>
-    <t>MIN_WIND_OFF</t>
-  </si>
-  <si>
-    <t>IMP_NAT_GAS</t>
-  </si>
-  <si>
-    <t>IMP_ELC</t>
-  </si>
-  <si>
-    <t>PJa</t>
-  </si>
-  <si>
-    <t>COST</t>
-  </si>
-  <si>
-    <t>CUM</t>
-  </si>
-  <si>
-    <t>We put 0.0001 as a "very small" value that is not 0</t>
   </si>
 </sst>
 </file>
@@ -1657,7 +1647,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1826,6 +1816,17 @@
         <color indexed="8"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2171,7 +2172,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2222,6 +2223,9 @@
     <xf numFmtId="165" fontId="55" fillId="30" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="54" fillId="31" borderId="16" xfId="274" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="54" fillId="31" borderId="15" xfId="274" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2237,17 +2241,20 @@
     <xf numFmtId="1" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="338">
@@ -2675,7 +2682,13 @@
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>^FI_ST: TCH, PRC</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4" refreshError="1"/>
       <sheetData sheetId="5"/>
@@ -3086,27 +3099,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:I29"/>
+  <dimension ref="B2:I30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.73046875" customWidth="1"/>
-    <col min="2" max="3" width="14.265625" customWidth="1"/>
-    <col min="4" max="4" width="32.73046875" customWidth="1"/>
-    <col min="5" max="5" width="10.73046875" customWidth="1"/>
-    <col min="6" max="6" width="15.73046875" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="12.73046875" customWidth="1"/>
-    <col min="9" max="9" width="15.73046875" customWidth="1"/>
-    <col min="10" max="10" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="17.25">
+    <row r="2" spans="2:9" ht="18">
       <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
@@ -3138,7 +3151,7 @@
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
     </row>
-    <row r="5" spans="2:9" ht="13.15">
+    <row r="5" spans="2:9">
       <c r="B5" s="29" t="s">
         <v>2</v>
       </c>
@@ -3165,143 +3178,151 @@
       </c>
     </row>
     <row r="6" spans="2:9" ht="38.25">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="31" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B7" s="27" t="s">
+    <row r="7" spans="2:9" ht="51.75" thickBot="1">
+      <c r="B7" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
+      <c r="C7" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="2:9" ht="18.75" customHeight="1">
       <c r="B8" s="27" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="F8" s="27"/>
-      <c r="G8" s="27" t="s">
-        <v>85</v>
-      </c>
+      <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
     </row>
     <row r="9" spans="2:9" ht="18.75" customHeight="1">
       <c r="B9" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>91</v>
+        <v>24</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>29</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
+        <v>25</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
     </row>
     <row r="10" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B10" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="I11" t="s">
-        <v>89</v>
-      </c>
+      <c r="B10" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+    </row>
+    <row r="11" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B11" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="E12" s="24"/>
+      <c r="B12" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>25</v>
+      </c>
       <c r="F12" s="19"/>
     </row>
     <row r="13" spans="2:9">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="19"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="E14" s="24"/>
       <c r="F14" s="19"/>
     </row>
     <row r="15" spans="2:9">
@@ -3316,80 +3337,86 @@
       <c r="E16" s="24"/>
       <c r="F16" s="19"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:6">
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
       <c r="E17" s="24"/>
-    </row>
-    <row r="18" spans="2:5">
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:6">
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:6">
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
       <c r="E20" s="24"/>
     </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="E22" s="24"/>
-    </row>
-    <row r="24" spans="2:5" ht="13.15" thickBot="1">
-      <c r="B24" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="39"/>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="21" t="s">
+    <row r="21" spans="2:6">
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="E21" s="24"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="E23" s="24"/>
+    </row>
+    <row r="25" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B25" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="40"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="13.15" thickBot="1">
-      <c r="B29" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>27</v>
+      <c r="C26" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B30" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3404,27 +3431,27 @@
   <dimension ref="A2:J31"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B4" sqref="B4:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.73046875" customWidth="1"/>
-    <col min="2" max="2" width="15.73046875" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="28.59765625" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
     <col min="6" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="11.3984375" customWidth="1"/>
-    <col min="9" max="9" width="14.265625" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="13" max="13" width="11.86328125" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="18" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="16" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3432,7 +3459,7 @@
     <row r="3" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="B4" s="18" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="19"/>
@@ -3445,161 +3472,171 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="B5" s="25" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="47.25" customHeight="1">
       <c r="B6" s="26" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="H6" s="26" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B7" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="32" t="s">
+      <c r="B7" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="H7" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
+      <c r="D7" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B8" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="32" t="s">
+      <c r="B8" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="H8" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
+      <c r="D8" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="B9" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="32" t="s">
+      <c r="B9" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="H9" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
+      <c r="D9" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1">
-      <c r="B10" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="32" t="s">
+      <c r="B10" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
+      <c r="D10" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="B11" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="32" t="s">
+      <c r="B11" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="H11" s="32" t="s">
-        <v>85</v>
+      <c r="D11" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3617,9 +3654,6 @@
     <row r="14" spans="1:10">
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
-      <c r="E14" s="24" t="s">
-        <v>80</v>
-      </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
     </row>
@@ -3655,96 +3689,96 @@
       <c r="F19" s="19"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
+      <c r="B22" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="22" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="D23" s="22"/>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="21" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="D24" s="21"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="22" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="D25" s="22"/>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="21" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="D26" s="21"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="22" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="D27" s="22"/>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="21" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="22" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="21" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="13.15" thickBot="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="13.5" thickBot="1">
       <c r="B31" s="23" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="D31" s="23"/>
     </row>
@@ -3762,23 +3796,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.73046875" customWidth="1"/>
-    <col min="2" max="2" width="22.73046875" customWidth="1"/>
-    <col min="3" max="3" width="27.265625" customWidth="1"/>
-    <col min="4" max="5" width="12.73046875" customWidth="1"/>
-    <col min="6" max="7" width="14.265625" customWidth="1"/>
-    <col min="8" max="10" width="15.73046875" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="7" width="14.28515625" customWidth="1"/>
+    <col min="9" max="11" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -3798,11 +3832,12 @@
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-    </row>
-    <row r="2" spans="1:20" ht="17.25">
+      <c r="U1" s="5"/>
+    </row>
+    <row r="2" spans="1:21" ht="18">
       <c r="A2" s="5"/>
       <c r="B2" s="10" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -3822,8 +3857,9 @@
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2" s="5"/>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="5"/>
@@ -3831,8 +3867,8 @@
       <c r="E3" s="7"/>
       <c r="F3" s="5"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="15"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -3844,11 +3880,12 @@
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" customHeight="1">
+      <c r="U3" s="5"/>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="D4" s="17" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -3866,23 +3903,24 @@
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
       <c r="T4" s="12"/>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" customHeight="1">
+      <c r="U4" s="12"/>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="25" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
@@ -3894,31 +3932,31 @@
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
-      <c r="R5" s="5"/>
+      <c r="R5" s="13"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
-    </row>
-    <row r="6" spans="1:20" ht="47.25" customHeight="1">
+      <c r="U5" s="5"/>
+    </row>
+    <row r="6" spans="1:21" ht="47.25" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="26" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="H6" s="14"/>
-      <c r="I6" s="26" t="s">
-        <v>74</v>
-      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -3929,120 +3967,129 @@
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B7" s="34" t="str">
+      <c r="U6" s="5"/>
+    </row>
+    <row r="7" spans="1:21" ht="15.75" customHeight="1">
+      <c r="B7" s="35" t="str">
         <f>SEC_Processes!D7</f>
+        <v>IMP_NAT_GAS</v>
+      </c>
+      <c r="C7" s="35" t="str">
+        <f>SEC_Processes!E7</f>
+        <v>Natural Gas Imports</v>
+      </c>
+      <c r="D7" s="35" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>NAT_GAS</v>
+      </c>
+      <c r="E7" s="36">
+        <v>10</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" customHeight="1">
+      <c r="B8" s="35" t="str">
+        <f>SEC_Processes!D8</f>
+        <v>IMP_ELC</v>
+      </c>
+      <c r="C8" s="35" t="str">
+        <f>SEC_Processes!E8</f>
+        <v>Electricicty import</v>
+      </c>
+      <c r="D8" s="35" t="str">
+        <f>SEC_Comm!C12</f>
+        <v>ELC</v>
+      </c>
+      <c r="E8" s="36">
+        <v>50</v>
+      </c>
+      <c r="F8" s="35"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="B9" s="37" t="str">
+        <f>SEC_Processes!D9</f>
         <v>MIN_SOLAR</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34" t="str" cm="1">
-        <f t="array" ref="D7:D11">SEC_Comm!C7:C11</f>
+      <c r="C9" s="37" t="str">
+        <f>SEC_Processes!E9</f>
+        <v>Solar</v>
+      </c>
+      <c r="D9" s="37" t="str">
+        <f>SEC_Comm!C9</f>
         <v>SOLAR</v>
       </c>
-      <c r="E7" s="35">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F7" s="34"/>
-      <c r="H7" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="37">
-        <v>10</v>
-      </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B8" s="34" t="str">
-        <f>SEC_Processes!D8</f>
+      <c r="E9" s="38">
+        <v>1E-3</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="37"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="B10" s="37" t="str">
+        <f>SEC_Processes!D10</f>
         <v>MIN_WIND_ON</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34" t="str">
+      <c r="C10" s="37" t="str">
+        <f>SEC_Processes!E10</f>
+        <v xml:space="preserve">Wind Onshore </v>
+      </c>
+      <c r="D10" s="37" t="str">
+        <f>SEC_Comm!C10</f>
         <v>WIND_ON</v>
       </c>
-      <c r="E8" s="35">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F8" s="34"/>
-      <c r="H8" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="37">
-        <v>50</v>
-      </c>
-      <c r="K8" s="37"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="B9" s="34" t="str">
-        <f>SEC_Processes!D9</f>
+      <c r="E10" s="38">
+        <v>1E-3</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="24"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="B11" s="37" t="str">
+        <f>SEC_Processes!D11</f>
         <v>MIN_WIND_OFF</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36" t="str">
+      <c r="C11" s="37" t="str">
+        <f>SEC_Processes!E11</f>
+        <v xml:space="preserve">Wind Onshore </v>
+      </c>
+      <c r="D11" s="37" t="str">
+        <f>SEC_Comm!C11</f>
         <v>WIND_OFF</v>
       </c>
-      <c r="E9" s="35">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="13.5">
-      <c r="B10" s="34" t="str">
-        <f>SEC_Processes!D10</f>
-        <v>IMP_NAT_GAS</v>
-      </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36" t="str">
-        <v>NAT_GAS</v>
-      </c>
-      <c r="E10" s="37">
-        <v>10</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="36"/>
-      <c r="I10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="13.5">
-      <c r="B11" s="34" t="str">
-        <f>SEC_Processes!D11</f>
-        <v>IMP_ELC</v>
-      </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36" t="str">
-        <v>ELC</v>
-      </c>
-      <c r="E11" s="37">
-        <v>50</v>
+      <c r="E11" s="38">
+        <v>0</v>
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:21">
+      <c r="D12" s="24"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:21">
+      <c r="E13" s="24"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:21">
+      <c r="D14" s="24"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:21">
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:21">
       <c r="F16" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J7:L7"/>
+  </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4051,6 +4098,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="56d16bfd38a93d3246b87ec2f908dfef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e7776de10091f04de0bec4c5ba2ee03" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -4194,22 +4256,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ADE2FD8-87C7-41E1-A1A0-6DF35B741F42}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4225,21 +4289,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/VT_Model_SUP_V01.xlsx
+++ b/VT_Model_SUP_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\MSc_SELECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxco\Desktop\Masters\UPC\SEM 2\Energy Policy\GAMS\Class 4\Model_MSc_SELECT\Model_MSc_SELECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E435FA-B065-4DF4-82E0-1F20FD583BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE09AD5-4591-4CF2-91E8-127DE2EB0E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -783,8 +783,30 @@
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="102">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -837,271 +859,259 @@
     <t>Electricity Indicator (for CHPs)</t>
   </si>
   <si>
-    <t>\I: Predefiniowany zbiór dóbr</t>
-  </si>
-  <si>
-    <t>Nazwa dobra</t>
-  </si>
-  <si>
-    <t>Opis sobra</t>
-  </si>
-  <si>
-    <t>Jednostka dobra</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Poziom podokresów roku - równanie bilansu</t>
-  </si>
-  <si>
-    <t>Oznaczenie dobra "energia elektryczna" dla CHP</t>
-  </si>
-  <si>
     <t>NRG</t>
   </si>
   <si>
+    <t>Available Commodity Sets</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>ENV</t>
+  </si>
+  <si>
+    <t>Emission</t>
+  </si>
+  <si>
+    <t>DEM</t>
+  </si>
+  <si>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t>MAT</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>Financial</t>
+  </si>
+  <si>
+    <t>Define Processes</t>
+  </si>
+  <si>
+    <t>~FI_Process</t>
+  </si>
+  <si>
+    <t>Sets</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>TechName</t>
+  </si>
+  <si>
+    <t>TechDesc</t>
+  </si>
+  <si>
+    <t>Tact</t>
+  </si>
+  <si>
+    <t>Tcap</t>
+  </si>
+  <si>
+    <t>Tslvl</t>
+  </si>
+  <si>
+    <t>PrimaryCG</t>
+  </si>
+  <si>
+    <t>Vintage</t>
+  </si>
+  <si>
+    <t>\I: Process Set</t>
+  </si>
+  <si>
+    <t>Region Name</t>
+  </si>
+  <si>
+    <t>Technology Name</t>
+  </si>
+  <si>
+    <t>Technology Description</t>
+  </si>
+  <si>
+    <t>Activity Unit</t>
+  </si>
+  <si>
+    <t>Capacity Unit</t>
+  </si>
+  <si>
+    <t>Primary Commodity Group</t>
+  </si>
+  <si>
+    <t>Vintage Tracking</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>Available Process Sets</t>
+  </si>
+  <si>
+    <t>ELE</t>
+  </si>
+  <si>
+    <t>Power Plant (Electricity Only)</t>
+  </si>
+  <si>
+    <t>CHP</t>
+  </si>
+  <si>
+    <t>Combined Heat &amp; Power Plant</t>
+  </si>
+  <si>
+    <t>STG</t>
+  </si>
+  <si>
+    <t>Timeslice Storage</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>Generic Process</t>
+  </si>
+  <si>
+    <t>DMD</t>
+  </si>
+  <si>
+    <t>Demand Process</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>Commodity only at Output</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>Eksport</t>
+  </si>
+  <si>
+    <t>Commodity only at Input</t>
+  </si>
+  <si>
+    <t>Mining</t>
+  </si>
+  <si>
+    <t>HPL</t>
+  </si>
+  <si>
+    <t>Heat Only Plant</t>
+  </si>
+  <si>
+    <t>Primary Energy Carriers Extraction</t>
+  </si>
+  <si>
+    <t>~FI_T</t>
+  </si>
+  <si>
+    <t>* TechDesc</t>
+  </si>
+  <si>
+    <t>Comm-OUT</t>
+  </si>
+  <si>
+    <t>\I: Technology Name</t>
+  </si>
+  <si>
+    <t>Output Commodity</t>
+  </si>
+  <si>
+    <t>Extraction Cost [EUR/GJ]</t>
+  </si>
+  <si>
+    <t>Cumulative bound</t>
+  </si>
+  <si>
+    <t>Natural gas price</t>
+  </si>
+  <si>
+    <t>Electricity from import</t>
+  </si>
+  <si>
+    <t>RES</t>
+  </si>
+  <si>
+    <t>very small</t>
+  </si>
+  <si>
+    <t>All processes BUT gas at the DAYNITE</t>
+  </si>
+  <si>
+    <t>MIN_SOLAR</t>
+  </si>
+  <si>
+    <t>Solar irradiance process</t>
+  </si>
+  <si>
     <t>PJ</t>
   </si>
   <si>
+    <t>SOLAR</t>
+  </si>
+  <si>
+    <t>DAYNITE</t>
+  </si>
+  <si>
+    <t>WIND_ON</t>
+  </si>
+  <si>
+    <t>WIND_OFF</t>
+  </si>
+  <si>
     <t>NAT_GAS</t>
   </si>
   <si>
-    <t>Natural Gas</t>
-  </si>
-  <si>
-    <t>SOLAR</t>
-  </si>
-  <si>
-    <t>Solar Energy</t>
-  </si>
-  <si>
-    <t>WIND_ON</t>
-  </si>
-  <si>
-    <t>Onshore Wind Energy</t>
-  </si>
-  <si>
-    <t>Available Commodity Sets</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>ENV</t>
-  </si>
-  <si>
-    <t>Emission</t>
-  </si>
-  <si>
-    <t>DEM</t>
-  </si>
-  <si>
-    <t>Demand</t>
-  </si>
-  <si>
-    <t>MAT</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>FIN</t>
-  </si>
-  <si>
-    <t>Financial</t>
-  </si>
-  <si>
-    <t>Define Processes</t>
-  </si>
-  <si>
-    <t>~FI_Process</t>
-  </si>
-  <si>
-    <t>Sets</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>TechName</t>
-  </si>
-  <si>
-    <t>TechDesc</t>
-  </si>
-  <si>
-    <t>Tact</t>
-  </si>
-  <si>
-    <t>Tcap</t>
-  </si>
-  <si>
-    <t>Tslvl</t>
-  </si>
-  <si>
-    <t>PrimaryCG</t>
-  </si>
-  <si>
-    <t>Vintage</t>
-  </si>
-  <si>
-    <t>\I: Process Set</t>
-  </si>
-  <si>
-    <t>Region Name</t>
-  </si>
-  <si>
-    <t>Technology Name</t>
-  </si>
-  <si>
-    <t>Technology Description</t>
-  </si>
-  <si>
-    <t>Activity Unit</t>
-  </si>
-  <si>
-    <t>Capacity Unit</t>
-  </si>
-  <si>
-    <t>Primary Commodity Group</t>
-  </si>
-  <si>
-    <t>Vintage Tracking</t>
-  </si>
-  <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <t>IMP</t>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>Wind onshore</t>
+  </si>
+  <si>
+    <t>Wind offshore</t>
+  </si>
+  <si>
+    <t>Nat gas</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>MIN_WIND_ON</t>
+  </si>
+  <si>
+    <t>MIN_WIND_OFF</t>
   </si>
   <si>
     <t>IMP_NAT_GAS</t>
   </si>
   <si>
-    <t>Natural Gas Imports</t>
-  </si>
-  <si>
-    <t>MIN_SOLAR</t>
-  </si>
-  <si>
-    <t>Solar</t>
-  </si>
-  <si>
-    <t>DAYNITE</t>
-  </si>
-  <si>
-    <t>MIN_WIND_ON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wind Onshore </t>
-  </si>
-  <si>
-    <t>Available Process Sets</t>
-  </si>
-  <si>
-    <t>ELE</t>
-  </si>
-  <si>
-    <t>Power Plant (Electricity Only)</t>
-  </si>
-  <si>
-    <t>CHP</t>
-  </si>
-  <si>
-    <t>Combined Heat &amp; Power Plant</t>
-  </si>
-  <si>
-    <t>STG</t>
-  </si>
-  <si>
-    <t>Timeslice Storage</t>
-  </si>
-  <si>
-    <t>PRE</t>
-  </si>
-  <si>
-    <t>Generic Process</t>
-  </si>
-  <si>
-    <t>DMD</t>
-  </si>
-  <si>
-    <t>Demand Process</t>
-  </si>
-  <si>
-    <t>Import</t>
-  </si>
-  <si>
-    <t>Commodity only at Output</t>
-  </si>
-  <si>
-    <t>EXP</t>
-  </si>
-  <si>
-    <t>Eksport</t>
-  </si>
-  <si>
-    <t>Commodity only at Input</t>
-  </si>
-  <si>
-    <t>Mining</t>
-  </si>
-  <si>
-    <t>HPL</t>
-  </si>
-  <si>
-    <t>Heat Only Plant</t>
-  </si>
-  <si>
-    <t>Primary Energy Carriers Extraction</t>
-  </si>
-  <si>
-    <t>~FI_T</t>
-  </si>
-  <si>
-    <t>Comm-OUT</t>
+    <t>IMP_ELC</t>
+  </si>
+  <si>
+    <t>PJa</t>
   </si>
   <si>
     <t>COST</t>
   </si>
   <si>
-    <t>\I: Technology Name</t>
-  </si>
-  <si>
-    <t>Output Commodity</t>
-  </si>
-  <si>
-    <t>Extraction Cost [EUR/GJ]</t>
-  </si>
-  <si>
-    <t>ELC</t>
-  </si>
-  <si>
-    <t>Electricity</t>
-  </si>
-  <si>
-    <t>NL</t>
-  </si>
-  <si>
-    <t>IMP_ELC</t>
-  </si>
-  <si>
-    <t>Electricicty import</t>
-  </si>
-  <si>
-    <t>WIND_OFF</t>
-  </si>
-  <si>
-    <t>MIN_WIND_OFF</t>
-  </si>
-  <si>
-    <t>Offshore Wind Energy</t>
-  </si>
-  <si>
     <t>CUM</t>
   </si>
   <si>
-    <t>Cumulative bound</t>
+    <t>We put 0.0001 as a "very small" value that is not 0</t>
   </si>
 </sst>
 </file>
@@ -1647,7 +1657,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1816,17 +1826,6 @@
         <color indexed="8"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2172,7 +2171,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2223,9 +2222,6 @@
     <xf numFmtId="165" fontId="55" fillId="30" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="54" fillId="31" borderId="16" xfId="274" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="54" fillId="31" borderId="15" xfId="274" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2241,20 +2237,17 @@
     <xf numFmtId="1" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="338">
@@ -2682,13 +2675,7 @@
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>^FI_ST: TCH, PRC</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4" refreshError="1"/>
       <sheetData sheetId="5"/>
@@ -3099,27 +3086,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:I30"/>
+  <dimension ref="B2:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.73046875" customWidth="1"/>
+    <col min="2" max="3" width="14.265625" customWidth="1"/>
+    <col min="4" max="4" width="32.73046875" customWidth="1"/>
+    <col min="5" max="5" width="10.73046875" customWidth="1"/>
+    <col min="6" max="6" width="15.73046875" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.73046875" customWidth="1"/>
+    <col min="9" max="9" width="15.73046875" customWidth="1"/>
+    <col min="10" max="10" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="18">
+    <row r="2" spans="2:9" ht="17.25">
       <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
@@ -3151,7 +3138,7 @@
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" ht="13.15">
       <c r="B5" s="29" t="s">
         <v>2</v>
       </c>
@@ -3178,151 +3165,143 @@
       </c>
     </row>
     <row r="6" spans="2:9" ht="38.25">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="51.75" thickBot="1">
-      <c r="B7" s="30" t="s">
+    <row r="7" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>23</v>
-      </c>
+      <c r="C7" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" spans="2:9" ht="18.75" customHeight="1">
       <c r="B8" s="27" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
+      <c r="G8" s="27" t="s">
+        <v>85</v>
+      </c>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
     </row>
     <row r="9" spans="2:9" ht="18.75" customHeight="1">
       <c r="B9" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>91</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
+        <v>83</v>
+      </c>
+      <c r="F9" s="31"/>
+      <c r="G9" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B10" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-    </row>
-    <row r="11" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B11" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
+      <c r="B10" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="31"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>25</v>
-      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="19"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="E13" s="24"/>
       <c r="F13" s="19"/>
     </row>
     <row r="14" spans="2:9">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="19"/>
     </row>
     <row r="15" spans="2:9">
@@ -3337,86 +3316,80 @@
       <c r="E16" s="24"/>
       <c r="F16" s="19"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:5">
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
       <c r="E17" s="24"/>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" spans="2:6">
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:5">
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:5">
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="E21" s="24"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="E23" s="24"/>
-    </row>
-    <row r="25" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B25" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="40"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="20" t="s">
+    <row r="22" spans="2:5">
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="E22" s="24"/>
+    </row>
+    <row r="24" spans="2:5" ht="13.15" thickBot="1">
+      <c r="B24" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="39"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B30" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>41</v>
+      <c r="C28" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="13.15" thickBot="1">
+      <c r="B29" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3431,27 +3404,27 @@
   <dimension ref="A2:J31"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:K12"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.73046875" customWidth="1"/>
+    <col min="2" max="2" width="15.73046875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.59765625" customWidth="1"/>
     <col min="6" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.3984375" customWidth="1"/>
+    <col min="9" max="9" width="14.265625" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="18" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3459,7 +3432,7 @@
     <row r="3" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="B4" s="18" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="19"/>
@@ -3472,171 +3445,161 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="B5" s="25" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="47.25" customHeight="1">
       <c r="B6" s="26" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="H6" s="26" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B7" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="33" t="s">
+      <c r="B7" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
+      <c r="H7" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B8" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="33" t="s">
+      <c r="B8" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
+      <c r="H8" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="B9" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="33" t="s">
+      <c r="B9" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
+      <c r="H9" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1">
-      <c r="B10" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="33" t="s">
+      <c r="B10" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="B11" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="33" t="s">
+      <c r="B11" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34" t="s">
-        <v>67</v>
+      <c r="H11" s="32" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3654,6 +3617,9 @@
     <row r="14" spans="1:10">
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
+      <c r="E14" s="24" t="s">
+        <v>80</v>
+      </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
     </row>
@@ -3689,96 +3655,96 @@
       <c r="F19" s="19"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
+      <c r="B22" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="22" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D23" s="22"/>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="21" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D24" s="21"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="22" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D25" s="22"/>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="21" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="D26" s="21"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="22" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="D27" s="22"/>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="21" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="22" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="13.5" thickBot="1">
+    </row>
+    <row r="31" spans="2:6" ht="13.15" thickBot="1">
       <c r="B31" s="23" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D31" s="23"/>
     </row>
@@ -3796,23 +3762,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="7" width="14.28515625" customWidth="1"/>
-    <col min="9" max="11" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.73046875" customWidth="1"/>
+    <col min="2" max="2" width="22.73046875" customWidth="1"/>
+    <col min="3" max="3" width="27.265625" customWidth="1"/>
+    <col min="4" max="5" width="12.73046875" customWidth="1"/>
+    <col min="6" max="7" width="14.265625" customWidth="1"/>
+    <col min="8" max="10" width="15.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:20">
       <c r="A1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -3832,12 +3798,11 @@
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-    </row>
-    <row r="2" spans="1:21" ht="18">
+    </row>
+    <row r="2" spans="1:20" ht="17.25">
       <c r="A2" s="5"/>
       <c r="B2" s="10" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -3857,9 +3822,8 @@
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-    </row>
-    <row r="3" spans="1:21">
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="5"/>
@@ -3867,8 +3831,8 @@
       <c r="E3" s="7"/>
       <c r="F3" s="5"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -3880,12 +3844,11 @@
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="4" spans="1:20" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="D4" s="17" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -3903,24 +3866,23 @@
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
       <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="5" spans="1:20" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="25" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
@@ -3932,31 +3894,31 @@
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
+      <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-    </row>
-    <row r="6" spans="1:21" ht="47.25" customHeight="1">
+    </row>
+    <row r="6" spans="1:20" ht="47.25" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="26" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="I6" s="26" t="s">
+        <v>74</v>
+      </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -3967,129 +3929,120 @@
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" customHeight="1">
-      <c r="B7" s="35" t="str">
+    </row>
+    <row r="7" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B7" s="34" t="str">
         <f>SEC_Processes!D7</f>
+        <v>MIN_SOLAR</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34" t="str" cm="1">
+        <f t="array" ref="D7:D11">SEC_Comm!C7:C11</f>
+        <v>SOLAR</v>
+      </c>
+      <c r="E7" s="35">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F7" s="34"/>
+      <c r="H7" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="37">
+        <v>10</v>
+      </c>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B8" s="34" t="str">
+        <f>SEC_Processes!D8</f>
+        <v>MIN_WIND_ON</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34" t="str">
+        <v>WIND_ON</v>
+      </c>
+      <c r="E8" s="35">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F8" s="34"/>
+      <c r="H8" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="37">
+        <v>50</v>
+      </c>
+      <c r="K8" s="37"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="B9" s="34" t="str">
+        <f>SEC_Processes!D9</f>
+        <v>MIN_WIND_OFF</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36" t="str">
+        <v>WIND_OFF</v>
+      </c>
+      <c r="E9" s="35">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="13.5">
+      <c r="B10" s="34" t="str">
+        <f>SEC_Processes!D10</f>
         <v>IMP_NAT_GAS</v>
       </c>
-      <c r="C7" s="35" t="str">
-        <f>SEC_Processes!E7</f>
-        <v>Natural Gas Imports</v>
-      </c>
-      <c r="D7" s="35" t="str">
-        <f>SEC_Comm!C8</f>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36" t="str">
         <v>NAT_GAS</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E10" s="37">
         <v>10</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1">
-      <c r="B8" s="35" t="str">
-        <f>SEC_Processes!D8</f>
+      <c r="F10" s="5"/>
+      <c r="G10" s="36"/>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="13.5">
+      <c r="B11" s="34" t="str">
+        <f>SEC_Processes!D11</f>
         <v>IMP_ELC</v>
       </c>
-      <c r="C8" s="35" t="str">
-        <f>SEC_Processes!E8</f>
-        <v>Electricicty import</v>
-      </c>
-      <c r="D8" s="35" t="str">
-        <f>SEC_Comm!C12</f>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36" t="str">
         <v>ELC</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E11" s="37">
         <v>50</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="B9" s="37" t="str">
-        <f>SEC_Processes!D9</f>
-        <v>MIN_SOLAR</v>
-      </c>
-      <c r="C9" s="37" t="str">
-        <f>SEC_Processes!E9</f>
-        <v>Solar</v>
-      </c>
-      <c r="D9" s="37" t="str">
-        <f>SEC_Comm!C9</f>
-        <v>SOLAR</v>
-      </c>
-      <c r="E9" s="38">
-        <v>1E-3</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="37"/>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="B10" s="37" t="str">
-        <f>SEC_Processes!D10</f>
-        <v>MIN_WIND_ON</v>
-      </c>
-      <c r="C10" s="37" t="str">
-        <f>SEC_Processes!E10</f>
-        <v xml:space="preserve">Wind Onshore </v>
-      </c>
-      <c r="D10" s="37" t="str">
-        <f>SEC_Comm!C10</f>
-        <v>WIND_ON</v>
-      </c>
-      <c r="E10" s="38">
-        <v>1E-3</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="24"/>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="B11" s="37" t="str">
-        <f>SEC_Processes!D11</f>
-        <v>MIN_WIND_OFF</v>
-      </c>
-      <c r="C11" s="37" t="str">
-        <f>SEC_Processes!E11</f>
-        <v xml:space="preserve">Wind Onshore </v>
-      </c>
-      <c r="D11" s="37" t="str">
-        <f>SEC_Comm!C11</f>
-        <v>WIND_OFF</v>
-      </c>
-      <c r="E11" s="38">
-        <v>0</v>
-      </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:21">
-      <c r="D12" s="24"/>
+    <row r="12" spans="1:20">
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:21">
-      <c r="E13" s="24"/>
+    <row r="13" spans="1:20">
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:21">
-      <c r="D14" s="24"/>
+    <row r="14" spans="1:20">
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:20">
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:20">
       <c r="F16" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="J7:L7"/>
-  </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4098,21 +4051,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="56d16bfd38a93d3246b87ec2f908dfef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e7776de10091f04de0bec4c5ba2ee03" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -4256,24 +4194,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ADE2FD8-87C7-41E1-A1A0-6DF35B741F42}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4289,4 +4225,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>